--- a/misc/boat_logs/PhlipsBoatMaintenanceLog.xlsx
+++ b/misc/boat_logs/PhlipsBoatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>multiple fuel line leaks, runs rough at low rpms</t>
+  </si>
+  <si>
+    <t>new spark plugs/carb adjustment</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,6 +941,58 @@
         <v>57</v>
       </c>
     </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="F26" s="1">
+        <v>43656</v>
+      </c>
+      <c r="X26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43673</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43675</v>
+      </c>
+      <c r="B29">
+        <v>120</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43689</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
